--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3304466.259959416</v>
+        <v>3302214.180248208</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877617</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>394.2071006265892</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.94848555066422</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.3606976213223</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.5628832813642</v>
+        <v>16.61609021060003</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>37.63801971859952</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>148.434892503107</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.76470074483102</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097352</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>88.89700561060579</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>40.53915896495955</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>152.8697920431067</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>19.72264368952201</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>283.6507840917154</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>26.27614159852221</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>53.30076123484789</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>3.475606507923219</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235233294</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>132.7714033631327</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>100.2041656279966</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730883</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>126.632153562788</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,7 +4144,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,10 +4195,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X46" t="n">
-        <v>33.828918917875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796265</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796265</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>921.7704558796265</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>921.7704558796265</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,22 +4328,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4383,73 +4383,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501177</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>751.9508228902781</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>751.9508228902781</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>604.037729307885</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>457.1477818099746</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>289.4449451846936</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>143.2277584025513</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4513,25 +4513,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>805.3711496350312</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>583.6045342045572</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1032.061124352532</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>663.0986074121208</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D5" t="n">
-        <v>304.8329088053703</v>
+        <v>547.3108956025783</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,22 +4562,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267231</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.03470992366</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653546</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392466</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416654</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>479.4537238215122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>479.4537238215122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>882.8688040822259</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>882.8688040822259</v>
+        <v>770.9527709665616</v>
       </c>
       <c r="T7" t="n">
-        <v>661.1021886517519</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="U7" t="n">
-        <v>661.1021886517519</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>661.1021886517519</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>661.1021886517519</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>661.1021886517519</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>661.1021886517519</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839473</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450756</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919561</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919561</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031455</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158112</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438127</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403.7945880458125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>403.7945880458125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>253.6779486334767</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>253.6779486334767</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962299</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372935</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596509</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588489</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886967</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068866</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596454</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438298</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438298</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W10" t="n">
-        <v>631.7841389438298</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X10" t="n">
-        <v>403.7945880458125</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="Y10" t="n">
-        <v>403.7945880458125</v>
+        <v>156.3070715944115</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2225.50344847599</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
@@ -5297,10 +5297,10 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2359.995517520015</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2140.394052542956</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1851.318825887154</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.2677182139842</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>530.3315352860773</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1873.799971328619</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1619.115483122732</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>175.8744207939072</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>175.8744207939072</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>809.0422355233313</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>640.1060525954244</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.6907003535711</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1522.21291626627</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1522.21291626627</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2074.122646505557</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>473.9330993947872</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>323.8164599824514</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2326.07822707019</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.9745311434712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>701.0383482155643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.622995973711</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6725,22 +6725,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>835.5837926935558</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>666.6476097656489</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>516.5309703533131</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>516.5309703533131</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>369.6410228554028</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1017.232257523796</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,22 +6953,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,13 +7424,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>282.1326295060857</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482838</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>64.53565828418161</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>161.3036423121226</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.533690297528779</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>225.8615017253058</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>127.7255247667967</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1398665102891</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>32.75273492913615</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>125.5054897610405</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125669</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>125.50548976104</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X46" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778549</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778556</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778551</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210057</v>
-      </c>
       <c r="L2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.841779966431205e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405243</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.583971892</v>
       </c>
       <c r="G4" t="n">
         <v>16046.583971892</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
+        <v>16046.58397189196</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16046.58397189196</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16046.58397189204</v>
+      </c>
+      <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="J4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16046.58397189203</v>
-      </c>
       <c r="M4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151828</v>
+        <v>-791337.8375151835</v>
       </c>
       <c r="C6" t="n">
+        <v>537406.9082124098</v>
+      </c>
+      <c r="D6" t="n">
         <v>537406.9082124094</v>
       </c>
-      <c r="D6" t="n">
-        <v>537406.9082124089</v>
-      </c>
       <c r="E6" t="n">
-        <v>283850.3641178514</v>
+        <v>283815.6261924153</v>
       </c>
       <c r="F6" t="n">
-        <v>609262.8259252063</v>
+        <v>609228.0879997703</v>
       </c>
       <c r="G6" t="n">
-        <v>609262.8259252064</v>
+        <v>609228.0879997704</v>
       </c>
       <c r="H6" t="n">
-        <v>609262.8259252066</v>
+        <v>609228.0879997704</v>
       </c>
       <c r="I6" t="n">
-        <v>609262.8259252061</v>
+        <v>609228.0879997702</v>
       </c>
       <c r="J6" t="n">
-        <v>391731.6235279289</v>
+        <v>391696.885602493</v>
       </c>
       <c r="K6" t="n">
-        <v>609262.8259252066</v>
+        <v>609228.0879997707</v>
       </c>
       <c r="L6" t="n">
-        <v>609262.8259252062</v>
+        <v>609228.0879997707</v>
       </c>
       <c r="M6" t="n">
-        <v>524207.7979896942</v>
+        <v>524173.0600642586</v>
       </c>
       <c r="N6" t="n">
-        <v>609262.8259252058</v>
+        <v>609228.0879997707</v>
       </c>
       <c r="O6" t="n">
-        <v>609262.825925206</v>
+        <v>609228.0879997707</v>
       </c>
       <c r="P6" t="n">
-        <v>609262.8259252061</v>
+        <v>609228.0879997708</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,10 +26808,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>289.2070795747044</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.66894511512226</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>20.40393485917387</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>75.40832771011964</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>205.3674867908976</v>
+        <v>365.3142798616618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>51.29413295144781</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>41.33413282833487</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.9691409186495</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>90.93497457133151</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>104.8818890579717</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28573,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-7.553251631224171e-14</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353132</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,46 +31671,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>207.939011051685</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>483.3274636075166</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>345.1232217852619</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>434.178635838203</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366855</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>543.5992845760902</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609541</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034297</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966719</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286439</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840384</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230785</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567575</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106947</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014231</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>81.10138438501833</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>340.7312191630721</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>211.1488143709317</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>395.0475418999253</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>291.5823913937585</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>405.044904796216</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
